--- a/ph_statistical_methods/tests/test_data/testdata_Proportion.xlsx
+++ b/ph_statistical_methods/tests/test_data/testdata_Proportion.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annabel.Westermann\Documents\Python\Projects\PH_statistical_methods\ph_statistical_methods\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A111AC0-10D6-4741-BE20-2F11F0F04E9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42C68A-7968-4386-9BA1-9E40B4844E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Prop" sheetId="3" r:id="rId1"/>
     <sheet name="testdata_Prop_g" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
   <si>
     <t>Numerator</t>
   </si>
@@ -103,23 +114,35 @@
     <t>Area09</t>
   </si>
   <si>
-    <t>lower95_0cl</t>
-  </si>
-  <si>
-    <t>upper95_0cl</t>
-  </si>
-  <si>
     <t>lower99_8cl</t>
   </si>
   <si>
     <t>upper99_8cl</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>lower_95_ci</t>
+  </si>
+  <si>
+    <t>upper_95_ci</t>
+  </si>
+  <si>
+    <t>Proportion of 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +154,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,13 +492,13 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -480,31 +509,32 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -515,36 +545,37 @@
         <v>100</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D17" si="0">IF(B2&lt;0,"#NUM!",B2/C2*K2)</f>
+        <f t="shared" ref="D2:D17" si="0">IF(B2&lt;0,"#NUM!",B2/C2*L2)</f>
         <v>0.01</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E17" si="1">(2*$B2+NORMSINV((100+95)/200)^2-NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+95)/200)^2)*$K2</f>
+        <f t="shared" ref="E2:E17" si="1">(2*$B2+NORMSINV((100+95)/200)^2-NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$L2)))/2/($C2+NORMSINV((100+95)/200)^2)*$L2</f>
         <v>1.7674320641406511E-3</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F17" si="2">(2*$B2+NORMSINV((100+95)/200)^2+NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+95)/200)^2)*$K2</f>
+        <f t="shared" ref="F2:F17" si="2">(2*$B2+NORMSINV((100+95)/200)^2+NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$L2)))/2/($C2+NORMSINV((100+95)/200)^2)*$L2</f>
         <v>5.4486196178705294E-2</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G17" si="3">(2*$B2+NORMSINV((100+99.8)/200)^2-NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+99.8)/200)^2)*$K2</f>
+        <f t="shared" ref="G2:G17" si="3">(2*$B2+NORMSINV((100+99.8)/200)^2-NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B2*(1-$D2/$L2)))/2/($C2+NORMSINV((100+99.8)/200)^2)*$L2</f>
         <v>8.73065697299977E-4</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H17" si="4">(2*$B2+NORMSINV((100+99.8)/200)^2+NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+99.8)/200)^2)*$K2</f>
+        <f t="shared" ref="H2:H17" si="4">(2*$B2+NORMSINV((100+99.8)/200)^2+NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B2*(1-$D2/$L2)))/2/($C2+NORMSINV((100+99.8)/200)^2)*$L2</f>
         <v>0.10455445283705821</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -575,16 +606,17 @@
         <v>0.16458852282596442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -615,16 +647,17 @@
         <v>0.3471109417008601</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,16 +688,17 @@
         <v>0.77835406140896968</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -695,16 +729,17 @@
         <v>0.80930614125896261</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -735,16 +770,17 @@
         <v>1.0291812992698397E-3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -775,16 +811,17 @@
         <v>8.4184141852701344E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -815,16 +852,17 @@
         <v>0.31344754492799848</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -860,11 +898,12 @@
       <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -900,11 +939,12 @@
       <c r="J11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -940,11 +980,12 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -980,11 +1021,12 @@
       <c r="J13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1020,11 +1062,12 @@
       <c r="J14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1060,11 +1103,12 @@
       <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1100,11 +1144,12 @@
       <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1140,11 +1185,12 @@
       <c r="J17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1157,11 +1203,12 @@
       <c r="J18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1174,11 +1221,11 @@
       <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1188,11 +1235,12 @@
       <c r="J20" t="s">
         <v>15</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1202,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BDD4BF-DA3C-4E63-8E1A-0835ACE9078C}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/ph_statistical_methods/tests/test_data/testdata_Proportion.xlsx
+++ b/ph_statistical_methods/tests/test_data/testdata_Proportion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annabel.Westermann\Documents\Python\Projects\PH_statistical_methods\ph_statistical_methods\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42C68A-7968-4386-9BA1-9E40B4844E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F45683-7DCB-4162-BCFA-56318B66AD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Prop" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
   <si>
     <t>Numerator</t>
   </si>
@@ -81,9 +81,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
     <t>Area09</t>
   </si>
   <si>
-    <t>lower99_8cl</t>
-  </si>
-  <si>
-    <t>upper99_8cl</t>
-  </si>
-  <si>
     <t>Statistic</t>
   </si>
   <si>
@@ -136,6 +127,21 @@
   </si>
   <si>
     <t>Proportion of 1</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>0.95, 0.998</t>
+  </si>
+  <si>
+    <t>upper_99_8_ci</t>
+  </si>
+  <si>
+    <t>lower_99_8_ci</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -481,24 +487,24 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -509,32 +515,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -565,17 +573,19 @@
         <v>0.10455445283705821</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -606,17 +616,19 @@
         <v>0.16458852282596442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -647,17 +659,19 @@
         <v>0.3471109417008601</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -688,17 +702,19 @@
         <v>0.77835406140896968</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -729,17 +745,19 @@
         <v>0.80930614125896261</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -770,17 +788,19 @@
         <v>1.0291812992698397E-3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -811,17 +831,19 @@
         <v>8.4184141852701344E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -852,17 +874,19 @@
         <v>0.31344754492799848</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -893,17 +917,19 @@
         <v>10.455445283705821</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -934,17 +960,19 @@
         <v>16.458852282596443</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -975,17 +1003,19 @@
         <v>34.711094170086007</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1016,17 +1046,19 @@
         <v>77.835406140896964</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1057,17 +1089,19 @@
         <v>80.930614125896255</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L14" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1098,17 +1132,19 @@
         <v>0.10291812992698397</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1139,17 +1175,19 @@
         <v>8.4184141852701337</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1180,60 +1218,70 @@
         <v>31.344754492799847</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L17" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1254,13 +1302,13 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1271,13 +1319,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -1289,10 +1337,10 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1314,19 +1362,19 @@
         <v>3.5721761716176796E-2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1348,19 +1396,19 @@
         <v>8.9578148138775973E-2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1382,19 +1430,19 @@
         <v>0.26085518656537882</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1416,19 +1464,19 @@
         <v>0.71271175872641923</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1450,19 +1498,19 @@
         <v>0.80333780322782966</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1484,19 +1532,19 @@
         <v>1.0285528098907119E-3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1518,19 +1566,19 @@
         <v>7.5509261831701299E-2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1552,70 +1600,70 @@
         <v>0.29986439017207411</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>1</v>

--- a/ph_statistical_methods/tests/test_data/testdata_Proportion.xlsx
+++ b/ph_statistical_methods/tests/test_data/testdata_Proportion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annabel.Westermann\Documents\Python\Projects\PH_statistical_methods\ph_statistical_methods\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F45683-7DCB-4162-BCFA-56318B66AD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E2EED-AF5B-4997-A5D0-48D882CAB439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Prop" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
   <si>
     <t>Numerator</t>
   </si>
@@ -48,66 +48,21 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Area1</t>
-  </si>
-  <si>
-    <t>Area5</t>
-  </si>
-  <si>
-    <t>Area2</t>
-  </si>
-  <si>
-    <t>Area3</t>
-  </si>
-  <si>
-    <t>Area4</t>
-  </si>
-  <si>
-    <t>Area6</t>
-  </si>
-  <si>
-    <t>Area7</t>
-  </si>
-  <si>
-    <t>Area8</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>statistic</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>Wilson</t>
   </si>
   <si>
-    <t>lowercl</t>
-  </si>
-  <si>
-    <t>uppercl</t>
-  </si>
-  <si>
     <t>multiplier</t>
   </si>
   <si>
     <t>95%</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Area10</t>
   </si>
   <si>
     <t>Area11</t>
   </si>
   <si>
-    <t>proportion of 1</t>
-  </si>
-  <si>
     <t>Area09</t>
   </si>
   <si>
@@ -132,9 +87,6 @@
     <t>Confidence</t>
   </si>
   <si>
-    <t>0.95, 0.998</t>
-  </si>
-  <si>
     <t>upper_99_8_ci</t>
   </si>
   <si>
@@ -142,6 +94,36 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>95%, 99.8%</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Area01</t>
+  </si>
+  <si>
+    <t>Area02</t>
+  </si>
+  <si>
+    <t>Area03</t>
+  </si>
+  <si>
+    <t>Area04</t>
+  </si>
+  <si>
+    <t>Area05</t>
+  </si>
+  <si>
+    <t>Area06</t>
+  </si>
+  <si>
+    <t>Area07</t>
+  </si>
+  <si>
+    <t>Area08</t>
   </si>
 </sst>
 </file>
@@ -486,25 +468,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="10" width="15.1796875" customWidth="1"/>
-    <col min="11" max="12" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -515,36 +497,36 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -573,21 +555,21 @@
         <v>0.10455445283705821</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -616,21 +598,21 @@
         <v>0.16458852282596442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
@@ -659,21 +641,21 @@
         <v>0.3471109417008601</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
         <v>65</v>
@@ -702,21 +684,21 @@
         <v>0.77835406140896968</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
         <v>9856</v>
@@ -745,21 +727,21 @@
         <v>0.80930614125896261</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
         <v>7776456</v>
@@ -788,21 +770,21 @@
         <v>1.0291812992698397E-3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>222</v>
@@ -831,21 +813,21 @@
         <v>8.4184141852701344E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>999</v>
@@ -874,21 +856,21 @@
         <v>0.31344754492799848</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -917,21 +899,21 @@
         <v>10.455445283705821</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -960,21 +942,21 @@
         <v>16.458852282596443</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>20</v>
@@ -1003,21 +985,21 @@
         <v>34.711094170086007</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>65</v>
@@ -1046,21 +1028,21 @@
         <v>77.835406140896964</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
         <v>9856</v>
@@ -1089,21 +1071,21 @@
         <v>80.930614125896255</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L14" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
         <v>7776456</v>
@@ -1132,21 +1114,21 @@
         <v>0.10291812992698397</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>222</v>
@@ -1175,21 +1157,21 @@
         <v>8.4184141852701337</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
         <v>999</v>
@@ -1218,70 +1200,70 @@
         <v>31.344754492799847</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L17" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1298,17 +1280,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BDD4BF-DA3C-4E63-8E1A-0835ACE9078C}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1319,30 +1301,30 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A2,testdata_Prop!B$2:B$17)</f>
@@ -1361,22 +1343,22 @@
       <c r="F2">
         <v>3.5721761716176796E-2</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A3,testdata_Prop!B$2:B$17)</f>
@@ -1395,22 +1377,22 @@
       <c r="F3">
         <v>8.9578148138775973E-2</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A4,testdata_Prop!B$2:B$17)</f>
@@ -1429,22 +1411,22 @@
       <c r="F4">
         <v>0.26085518656537882</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A5,testdata_Prop!B$2:B$17)</f>
@@ -1463,22 +1445,22 @@
       <c r="F5">
         <v>0.71271175872641923</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A6,testdata_Prop!B$2:B$17)</f>
@@ -1497,22 +1479,22 @@
       <c r="F6">
         <v>0.80333780322782966</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A7,testdata_Prop!B$2:B$17)</f>
@@ -1531,22 +1513,22 @@
       <c r="F7">
         <v>1.0285528098907119E-3</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A8,testdata_Prop!B$2:B$17)</f>
@@ -1565,22 +1547,22 @@
       <c r="F8">
         <v>7.5509261831701299E-2</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A9,testdata_Prop!B$2:B$17)</f>
@@ -1599,77 +1581,78 @@
       <c r="F9">
         <v>0.29986439017207411</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>